--- a/log.xlsx
+++ b/log.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01062D7F-A82D-4ECF-A9D2-8F3601EBF629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +19,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Experiment Number</t>
+  </si>
+  <si>
+    <t>Parameters Chosen</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,11 +72,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +359,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/log.xlsx
+++ b/log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01062D7F-A82D-4ECF-A9D2-8F3601EBF629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D7739-EDFA-4A05-822B-21876C04D405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,13 +72,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,6 +392,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
